--- a/src/dataset/VerSe_masterlist.xlsx
+++ b/src/dataset/VerSe_masterlist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="305">
   <si>
     <t>Id</t>
   </si>
@@ -454,7 +454,7 @@
     <t>sub-verse507</t>
   </si>
   <si>
-    <t>2b, 4 (or 2a-R)</t>
+    <t/>
   </si>
   <si>
     <t>sub-verse508</t>
@@ -653,9 +653,6 @@
   </si>
   <si>
     <t>sub-verse590</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>sub-verse592</t>
@@ -939,7 +936,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,13 +947,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1028,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1045,34 +1036,16 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
@@ -1395,14 +1368,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="27.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="27.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1431,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5" hidden="1">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -1451,7 +1424,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5" hidden="1">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -1471,7 +1444,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5" hidden="1">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -1491,7 +1464,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5" hidden="1">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -1503,7 +1476,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5" hidden="1">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -1523,7 +1496,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5" hidden="1">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -1543,7 +1516,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5" hidden="1">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -1563,7 +1536,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5" hidden="1">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -1575,7 +1548,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5" hidden="1">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -1587,7 +1560,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5" hidden="1">
       <c r="A11" s="1">
         <v>13</v>
       </c>
@@ -1607,7 +1580,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5" hidden="1">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -1627,7 +1600,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5" hidden="1">
       <c r="A13" s="1">
         <v>15</v>
       </c>
@@ -1649,7 +1622,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5" hidden="1">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -1669,7 +1642,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5" hidden="1">
       <c r="A15" s="1">
         <v>18</v>
       </c>
@@ -1683,7 +1656,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5" hidden="1">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -1703,7 +1676,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5" hidden="1">
       <c r="A17" s="1">
         <v>22</v>
       </c>
@@ -1723,7 +1696,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5" hidden="1">
       <c r="A18" s="1">
         <v>23</v>
       </c>
@@ -1743,7 +1716,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5" hidden="1">
       <c r="A19" s="1">
         <v>24</v>
       </c>
@@ -1763,7 +1736,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5" hidden="1">
       <c r="A20" s="1">
         <v>26</v>
       </c>
@@ -1783,7 +1756,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5" hidden="1">
       <c r="A21" s="1">
         <v>29</v>
       </c>
@@ -1803,7 +1776,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5" hidden="1">
       <c r="A22" s="1">
         <v>30</v>
       </c>
@@ -1823,7 +1796,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5" hidden="1">
       <c r="A23" s="1">
         <v>31</v>
       </c>
@@ -1843,7 +1816,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5" hidden="1">
       <c r="A24" s="1">
         <v>32</v>
       </c>
@@ -1863,7 +1836,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5" hidden="1">
       <c r="A25" s="1">
         <v>33</v>
       </c>
@@ -1883,7 +1856,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5" hidden="1">
       <c r="A26" s="1">
         <v>34</v>
       </c>
@@ -1903,7 +1876,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5" hidden="1">
       <c r="A27" s="1">
         <v>36</v>
       </c>
@@ -1923,7 +1896,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5" hidden="1">
       <c r="A28" s="1">
         <v>38</v>
       </c>
@@ -1943,7 +1916,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5" hidden="1">
       <c r="A29" s="1">
         <v>40</v>
       </c>
@@ -1963,7 +1936,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5" hidden="1">
       <c r="A30" s="1">
         <v>41</v>
       </c>
@@ -1985,7 +1958,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5" hidden="1">
       <c r="A31" s="1">
         <v>43</v>
       </c>
@@ -2005,7 +1978,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5" hidden="1">
       <c r="A32" s="1">
         <v>46</v>
       </c>
@@ -2025,7 +1998,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5" hidden="1">
       <c r="A33" s="1">
         <v>47</v>
       </c>
@@ -2045,7 +2018,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5" hidden="1">
       <c r="A34" s="1">
         <v>48</v>
       </c>
@@ -2065,7 +2038,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5" hidden="1">
       <c r="A35" s="1">
         <v>50</v>
       </c>
@@ -2085,7 +2058,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5" hidden="1">
       <c r="A36" s="1">
         <v>51</v>
       </c>
@@ -2105,7 +2078,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5" hidden="1">
       <c r="A37" s="1">
         <v>53</v>
       </c>
@@ -2125,7 +2098,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5" hidden="1">
       <c r="A38" s="1">
         <v>54</v>
       </c>
@@ -2145,7 +2118,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5" hidden="1">
       <c r="A39" s="1">
         <v>55</v>
       </c>
@@ -2165,7 +2138,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5" hidden="1">
       <c r="A40" s="1">
         <v>56</v>
       </c>
@@ -2185,7 +2158,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5" hidden="1">
       <c r="A41" s="1">
         <v>58</v>
       </c>
@@ -2205,7 +2178,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5" hidden="1">
       <c r="A42" s="1">
         <v>59</v>
       </c>
@@ -2217,7 +2190,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5" hidden="1">
       <c r="A43" s="1">
         <v>60</v>
       </c>
@@ -2237,7 +2210,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5" hidden="1">
       <c r="A44" s="1">
         <v>61</v>
       </c>
@@ -2257,7 +2230,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5" hidden="1">
       <c r="A45" s="1">
         <v>63</v>
       </c>
@@ -2277,7 +2250,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5" hidden="1">
       <c r="A46" s="1">
         <v>64</v>
       </c>
@@ -2297,7 +2270,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5" hidden="1">
       <c r="A47" s="1">
         <v>65</v>
       </c>
@@ -2317,7 +2290,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5" hidden="1">
       <c r="A48" s="1">
         <v>66</v>
       </c>
@@ -2339,7 +2312,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5" hidden="1">
       <c r="A49" s="1">
         <v>67</v>
       </c>
@@ -2361,7 +2334,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5" hidden="1">
       <c r="A50" s="1">
         <v>68</v>
       </c>
@@ -2381,7 +2354,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5" hidden="1">
       <c r="A51" s="1">
         <v>70</v>
       </c>
@@ -2401,7 +2374,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5" hidden="1">
       <c r="A52" s="1">
         <v>71</v>
       </c>
@@ -2421,7 +2394,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5" hidden="1">
       <c r="A53" s="1">
         <v>72</v>
       </c>
@@ -2441,7 +2414,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5" hidden="1">
       <c r="A54" s="1">
         <v>73</v>
       </c>
@@ -2461,7 +2434,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5" hidden="1">
       <c r="A55" s="1">
         <v>74</v>
       </c>
@@ -2481,7 +2454,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5" hidden="1">
       <c r="A56" s="1">
         <v>75</v>
       </c>
@@ -2493,7 +2466,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5" hidden="1">
       <c r="A57" s="1">
         <v>76</v>
       </c>
@@ -2513,7 +2486,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5" hidden="1">
       <c r="A58" s="1">
         <v>78</v>
       </c>
@@ -2533,7 +2506,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5" hidden="1">
       <c r="A59" s="1">
         <v>80</v>
       </c>
@@ -2553,7 +2526,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5" hidden="1">
       <c r="A60" s="1">
         <v>81</v>
       </c>
@@ -2565,7 +2538,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5" hidden="1">
       <c r="A61" s="1">
         <v>82</v>
       </c>
@@ -2585,7 +2558,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="16.5" hidden="1">
       <c r="A62" s="1">
         <v>83</v>
       </c>
@@ -2605,7 +2578,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="16.5" hidden="1">
       <c r="A63" s="1">
         <v>85</v>
       </c>
@@ -2627,7 +2600,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="16.5" hidden="1">
       <c r="A64" s="1">
         <v>88</v>
       </c>
@@ -2647,7 +2620,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="16.5" hidden="1">
       <c r="A65" s="1">
         <v>89</v>
       </c>
@@ -2667,7 +2640,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="16.5" hidden="1">
       <c r="A66" s="1">
         <v>91</v>
       </c>
@@ -2687,7 +2660,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="16.5" hidden="1">
       <c r="A67" s="1">
         <v>92</v>
       </c>
@@ -2707,7 +2680,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="16.5" hidden="1">
       <c r="A68" s="1">
         <v>93</v>
       </c>
@@ -2727,7 +2700,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="16.5" hidden="1">
       <c r="A69" s="1">
         <v>95</v>
       </c>
@@ -2747,7 +2720,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="16.5" hidden="1">
       <c r="A70" s="1">
         <v>96</v>
       </c>
@@ -2767,7 +2740,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="16.5" hidden="1">
       <c r="A71" s="1">
         <v>97</v>
       </c>
@@ -2787,7 +2760,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="16.5" hidden="1">
       <c r="A72" s="1">
         <v>100</v>
       </c>
@@ -2801,7 +2774,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="16.5" hidden="1">
       <c r="A73" s="1">
         <v>101</v>
       </c>
@@ -2821,7 +2794,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="16.5" hidden="1">
       <c r="A74" s="1">
         <v>102</v>
       </c>
@@ -2841,7 +2814,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="16.5" hidden="1">
       <c r="A75" s="1">
         <v>104</v>
       </c>
@@ -2861,7 +2834,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="16.5" hidden="1">
       <c r="A76" s="1">
         <v>105</v>
       </c>
@@ -2873,7 +2846,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="16.5" hidden="1">
       <c r="A77" s="1">
         <v>107</v>
       </c>
@@ -2893,7 +2866,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="16.5" hidden="1">
       <c r="A78" s="1">
         <v>108</v>
       </c>
@@ -2913,7 +2886,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="16.5" hidden="1">
       <c r="A79" s="1">
         <v>111</v>
       </c>
@@ -2933,7 +2906,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="16.5" hidden="1">
       <c r="A80" s="1">
         <v>112</v>
       </c>
@@ -2947,7 +2920,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="16.5" hidden="1">
       <c r="A81" s="1">
         <v>113</v>
       </c>
@@ -2967,7 +2940,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.5" hidden="1">
       <c r="A82" s="1">
         <v>116</v>
       </c>
@@ -2987,7 +2960,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="16.5" hidden="1">
       <c r="A83" s="1">
         <v>119</v>
       </c>
@@ -2999,7 +2972,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="16.5" hidden="1">
       <c r="A84" s="1">
         <v>122</v>
       </c>
@@ -3019,7 +2992,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="16.5" hidden="1">
       <c r="A85" s="1">
         <v>124</v>
       </c>
@@ -3039,7 +3012,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="16.5" hidden="1">
       <c r="A86" s="1">
         <v>125</v>
       </c>
@@ -3051,7 +3024,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="16.5" hidden="1">
       <c r="A87" s="1">
         <v>127</v>
       </c>
@@ -3071,7 +3044,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="16.5" hidden="1">
       <c r="A88" s="1">
         <v>130</v>
       </c>
@@ -3091,7 +3064,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="16.5" hidden="1">
       <c r="A89" s="1">
         <v>131</v>
       </c>
@@ -3113,7 +3086,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="16.5" hidden="1">
       <c r="A90" s="1">
         <v>133</v>
       </c>
@@ -3133,7 +3106,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="16.5" hidden="1">
       <c r="A91" s="1">
         <v>134</v>
       </c>
@@ -3153,7 +3126,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="16.5" hidden="1">
       <c r="A92" s="1">
         <v>135</v>
       </c>
@@ -3173,7 +3146,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="16.5" hidden="1">
       <c r="A93" s="1">
         <v>137</v>
       </c>
@@ -3193,7 +3166,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="16.5" hidden="1">
       <c r="A94" s="1">
         <v>138</v>
       </c>
@@ -3213,7 +3186,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="16.5" hidden="1">
       <c r="A95" s="1">
         <v>139</v>
       </c>
@@ -3233,7 +3206,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="16.5" hidden="1">
       <c r="A96" s="1">
         <v>141</v>
       </c>
@@ -3253,7 +3226,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="16.5" hidden="1">
       <c r="A97" s="1">
         <v>143</v>
       </c>
@@ -3275,7 +3248,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="16.5" hidden="1">
       <c r="A98" s="1">
         <v>144</v>
       </c>
@@ -3295,7 +3268,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="16.5" hidden="1">
       <c r="A99" s="1">
         <v>145</v>
       </c>
@@ -3315,7 +3288,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="16.5" hidden="1">
       <c r="A100" s="1">
         <v>146</v>
       </c>
@@ -3335,7 +3308,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="16.5" hidden="1">
       <c r="A101" s="1">
         <v>147</v>
       </c>
@@ -3355,7 +3328,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="16.5" hidden="1">
       <c r="A102" s="1">
         <v>149</v>
       </c>
@@ -3375,7 +3348,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="16.5" hidden="1">
       <c r="A103" s="1">
         <v>150</v>
       </c>
@@ -3387,7 +3360,7 @@
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="16.5" hidden="1">
       <c r="A104" s="1">
         <v>151</v>
       </c>
@@ -3407,7 +3380,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="16.5" hidden="1">
       <c r="A105" s="1">
         <v>152</v>
       </c>
@@ -3427,7 +3400,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="16.5" hidden="1">
       <c r="A106" s="1">
         <v>153</v>
       </c>
@@ -3447,7 +3420,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="16.5" hidden="1">
       <c r="A107" s="1">
         <v>154</v>
       </c>
@@ -3467,7 +3440,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="16.5" hidden="1">
       <c r="A108" s="1">
         <v>205</v>
       </c>
@@ -3479,7 +3452,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="16.5" hidden="1">
       <c r="A109" s="1">
         <v>207</v>
       </c>
@@ -3491,7 +3464,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="16.5" hidden="1">
       <c r="A110" s="1">
         <v>217</v>
       </c>
@@ -3503,7 +3476,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="16.5" hidden="1">
       <c r="A111" s="1">
         <v>221</v>
       </c>
@@ -3515,7 +3488,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="16.5" hidden="1">
       <c r="A112" s="1">
         <v>225</v>
       </c>
@@ -3527,7 +3500,7 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="16.5" hidden="1">
       <c r="A113" s="1">
         <v>230</v>
       </c>
@@ -3539,7 +3512,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="16.5" hidden="1">
       <c r="A114" s="1">
         <v>236</v>
       </c>
@@ -3559,7 +3532,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="16.5" hidden="1">
       <c r="A115" s="1">
         <v>242</v>
       </c>
@@ -3571,7 +3544,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="16.5" hidden="1">
       <c r="A116" s="1">
         <v>250</v>
       </c>
@@ -3583,7 +3556,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="16.5" hidden="1">
       <c r="A117" s="1">
         <v>252</v>
       </c>
@@ -3603,7 +3576,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="16.5" hidden="1">
       <c r="A118" s="1">
         <v>254</v>
       </c>
@@ -3623,7 +3596,7 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="16.5" hidden="1">
       <c r="A119" s="1">
         <v>257</v>
       </c>
@@ -3643,7 +3616,7 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="16.5" hidden="1">
       <c r="A120" s="1">
         <v>260</v>
       </c>
@@ -3663,7 +3636,7 @@
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="16.5" hidden="1">
       <c r="A121" s="1">
         <v>264</v>
       </c>
@@ -3683,7 +3656,7 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="16.5" hidden="1">
       <c r="A122" s="1">
         <v>269</v>
       </c>
@@ -3703,7 +3676,7 @@
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="16.5" hidden="1">
       <c r="A123" s="1">
         <v>271</v>
       </c>
@@ -3723,7 +3696,7 @@
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="16.5" hidden="1">
       <c r="A124" s="1">
         <v>276</v>
       </c>
@@ -3743,7 +3716,7 @@
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="16.5" hidden="1">
       <c r="A125" s="1">
         <v>400</v>
       </c>
@@ -3763,7 +3736,7 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="16.5" hidden="1">
       <c r="A126" s="1">
         <v>401</v>
       </c>
@@ -3783,7 +3756,7 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="16.5" hidden="1">
       <c r="A127" s="1">
         <v>402</v>
       </c>
@@ -3803,7 +3776,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="16.5" hidden="1">
       <c r="A128" s="1">
         <v>403</v>
       </c>
@@ -3823,7 +3796,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="16.5" hidden="1">
       <c r="A129" s="1">
         <v>404</v>
       </c>
@@ -3843,7 +3816,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="16.5" hidden="1">
       <c r="A130" s="1">
         <v>405</v>
       </c>
@@ -3863,7 +3836,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="16.5" hidden="1">
       <c r="A131" s="1">
         <v>406</v>
       </c>
@@ -3883,7 +3856,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="16.5" hidden="1">
       <c r="A132" s="1">
         <v>407</v>
       </c>
@@ -3903,7 +3876,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="16.5" hidden="1">
       <c r="A133" s="1">
         <v>408</v>
       </c>
@@ -3923,7 +3896,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="16.5" hidden="1">
       <c r="A134" s="1">
         <v>409</v>
       </c>
@@ -3943,7 +3916,7 @@
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="16.5" hidden="1">
       <c r="A135" s="1">
         <v>410</v>
       </c>
@@ -3963,7 +3936,7 @@
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="16.5" hidden="1">
       <c r="A136" s="1">
         <v>411</v>
       </c>
@@ -3983,7 +3956,7 @@
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="16.5" hidden="1">
       <c r="A137" s="1">
         <v>412</v>
       </c>
@@ -4003,7 +3976,7 @@
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="16.5" hidden="1">
       <c r="A138" s="1">
         <v>413</v>
       </c>
@@ -4023,7 +3996,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="16.5" hidden="1">
       <c r="A139" s="1">
         <v>414</v>
       </c>
@@ -4043,7 +4016,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="16.5" hidden="1">
       <c r="A140" s="1">
         <v>415</v>
       </c>
@@ -4063,7 +4036,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="16.5" hidden="1">
       <c r="A141" s="1">
         <v>416</v>
       </c>
@@ -4083,7 +4056,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="16.5" hidden="1">
       <c r="A142" s="1">
         <v>417</v>
       </c>
@@ -4103,17 +4076,17 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="16.5" hidden="1">
       <c r="A143" s="1">
         <v>500</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E143" s="7" t="s">
@@ -4125,17 +4098,17 @@
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="16.5" hidden="1">
       <c r="A144" s="1">
         <v>502</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C144" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D144" s="11"/>
+      <c r="D144" s="7"/>
       <c r="E144" s="7" t="s">
         <v>9</v>
       </c>
@@ -4145,17 +4118,17 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="16.5" hidden="1">
       <c r="A145" s="1">
         <v>503</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D145" s="11"/>
+      <c r="D145" s="7"/>
       <c r="E145" s="7" t="s">
         <v>9</v>
       </c>
@@ -4165,17 +4138,17 @@
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="16.5" hidden="1">
       <c r="A146" s="1">
         <v>504</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E146" s="7" t="s">
@@ -4187,17 +4160,17 @@
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="16.5" hidden="1">
       <c r="A147" s="1">
         <v>505</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D147" s="11"/>
+      <c r="D147" s="7"/>
       <c r="E147" s="7" t="s">
         <v>9</v>
       </c>
@@ -4207,17 +4180,17 @@
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="16.5" hidden="1">
       <c r="A148" s="1">
         <v>506</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D148" s="11"/>
+      <c r="D148" s="7"/>
       <c r="E148" s="7" t="s">
         <v>9</v>
       </c>
@@ -4234,10 +4207,10 @@
       <c r="B149" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="13" t="s">
+      <c r="C149" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" s="10" t="s">
         <v>146</v>
       </c>
       <c r="E149" s="7" t="s">
@@ -4249,17 +4222,17 @@
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="16.5" hidden="1">
       <c r="A150" s="1">
         <v>508</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D150" s="11"/>
+      <c r="D150" s="7"/>
       <c r="E150" s="7" t="s">
         <v>9</v>
       </c>
@@ -4269,17 +4242,17 @@
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="16.5" hidden="1">
       <c r="A151" s="1">
         <v>509</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D151" s="11"/>
+      <c r="D151" s="7"/>
       <c r="E151" s="7" t="s">
         <v>9</v>
       </c>
@@ -4289,17 +4262,17 @@
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="16.5" hidden="1">
       <c r="A152" s="1">
         <v>510</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="D152" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E152" s="7" t="s">
@@ -4311,17 +4284,17 @@
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="16.5" hidden="1">
       <c r="A153" s="1">
         <v>511</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C153" s="10">
-        <v>0</v>
-      </c>
-      <c r="D153" s="11"/>
+      <c r="C153" s="9">
+        <v>0</v>
+      </c>
+      <c r="D153" s="7"/>
       <c r="E153" s="7" t="s">
         <v>9</v>
       </c>
@@ -4331,17 +4304,17 @@
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="16.5" hidden="1">
       <c r="A154" s="1">
         <v>512</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D154" s="11"/>
+      <c r="D154" s="7"/>
       <c r="E154" s="7" t="s">
         <v>9</v>
       </c>
@@ -4351,17 +4324,17 @@
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="16.5" hidden="1">
       <c r="A155" s="1">
         <v>513</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D155" s="11"/>
+      <c r="D155" s="7"/>
       <c r="E155" s="7" t="s">
         <v>9</v>
       </c>
@@ -4371,17 +4344,17 @@
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="16.5" hidden="1">
       <c r="A156" s="1">
         <v>514</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D156" s="11"/>
+      <c r="D156" s="7"/>
       <c r="E156" s="7" t="s">
         <v>9</v>
       </c>
@@ -4391,17 +4364,17 @@
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="16.5" hidden="1">
       <c r="A157" s="1">
         <v>517</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D157" s="11"/>
+      <c r="D157" s="7"/>
       <c r="E157" s="7" t="s">
         <v>9</v>
       </c>
@@ -4411,17 +4384,17 @@
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="16.5" hidden="1">
       <c r="A158" s="1">
         <v>518</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="9">
         <v>4</v>
       </c>
-      <c r="D158" s="11"/>
+      <c r="D158" s="7"/>
       <c r="E158" s="7" t="s">
         <v>9</v>
       </c>
@@ -4431,17 +4404,17 @@
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="16.5" hidden="1">
       <c r="A159" s="1">
         <v>519</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E159" s="7" t="s">
@@ -4453,17 +4426,17 @@
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="16.5" hidden="1">
       <c r="A160" s="1">
         <v>521</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E160" s="7" t="s">
@@ -4475,17 +4448,17 @@
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="16.5" hidden="1">
       <c r="A161" s="1">
         <v>522</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D161" s="11"/>
+      <c r="D161" s="7"/>
       <c r="E161" s="7" t="s">
         <v>9</v>
       </c>
@@ -4495,17 +4468,17 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="16.5" hidden="1">
       <c r="A162" s="1">
         <v>524</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D162" s="11"/>
+      <c r="D162" s="7"/>
       <c r="E162" s="7" t="s">
         <v>9</v>
       </c>
@@ -4515,17 +4488,17 @@
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="16.5" hidden="1">
       <c r="A163" s="1">
         <v>525</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E163" s="7" t="s">
@@ -4537,17 +4510,17 @@
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="16.5" hidden="1">
       <c r="A164" s="1">
         <v>526</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="11"/>
+      <c r="D164" s="7"/>
       <c r="E164" s="7" t="s">
         <v>9</v>
       </c>
@@ -4557,17 +4530,17 @@
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="16.5" hidden="1">
       <c r="A165" s="1">
         <v>527</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D165" s="11"/>
+      <c r="D165" s="7"/>
       <c r="E165" s="7" t="s">
         <v>9</v>
       </c>
@@ -4577,17 +4550,17 @@
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="16.5" hidden="1">
       <c r="A166" s="1">
         <v>529</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C166" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E166" s="7" t="s">
@@ -4599,17 +4572,17 @@
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="16.5" hidden="1">
       <c r="A167" s="1">
         <v>530</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D167" s="11"/>
+      <c r="D167" s="7"/>
       <c r="E167" s="7" t="s">
         <v>9</v>
       </c>
@@ -4619,17 +4592,17 @@
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="16.5" hidden="1">
       <c r="A168" s="1">
         <v>531</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D168" s="11"/>
+      <c r="D168" s="7"/>
       <c r="E168" s="7" t="s">
         <v>9</v>
       </c>
@@ -4639,17 +4612,17 @@
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="16.5" hidden="1">
       <c r="A169" s="1">
         <v>532</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D169" s="11"/>
+      <c r="D169" s="7"/>
       <c r="E169" s="7" t="s">
         <v>9</v>
       </c>
@@ -4659,17 +4632,17 @@
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="16.5" hidden="1">
       <c r="A170" s="1">
         <v>533</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C170" s="10">
-        <v>0</v>
-      </c>
-      <c r="D170" s="11"/>
+      <c r="C170" s="9">
+        <v>0</v>
+      </c>
+      <c r="D170" s="7"/>
       <c r="E170" s="7" t="s">
         <v>9</v>
       </c>
@@ -4679,17 +4652,17 @@
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="16.5" hidden="1">
       <c r="A171" s="1">
         <v>534</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D171" s="11"/>
+      <c r="D171" s="7"/>
       <c r="E171" s="7" t="s">
         <v>9</v>
       </c>
@@ -4699,17 +4672,17 @@
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="16.5" hidden="1">
       <c r="A172" s="1">
         <v>535</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D172" s="11"/>
+      <c r="D172" s="7"/>
       <c r="E172" s="7" t="s">
         <v>9</v>
       </c>
@@ -4719,17 +4692,17 @@
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="16.5" hidden="1">
       <c r="A173" s="1">
         <v>536</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D173" s="11"/>
+      <c r="D173" s="7"/>
       <c r="E173" s="7" t="s">
         <v>9</v>
       </c>
@@ -4739,17 +4712,17 @@
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="16.5" hidden="1">
       <c r="A174" s="1">
         <v>537</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E174" s="7" t="s">
@@ -4761,17 +4734,17 @@
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="16.5" hidden="1">
       <c r="A175" s="1">
         <v>539</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D175" s="11"/>
+      <c r="D175" s="7"/>
       <c r="E175" s="7" t="s">
         <v>9</v>
       </c>
@@ -4781,17 +4754,17 @@
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="16.5" hidden="1">
       <c r="A176" s="1">
         <v>540</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C176" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D176" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E176" s="7" t="s">
@@ -4803,17 +4776,17 @@
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="16.5" hidden="1">
       <c r="A177" s="1">
         <v>541</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="10">
-        <v>0</v>
-      </c>
-      <c r="D177" s="11"/>
+      <c r="C177" s="9">
+        <v>0</v>
+      </c>
+      <c r="D177" s="7"/>
       <c r="E177" s="7" t="s">
         <v>9</v>
       </c>
@@ -4823,17 +4796,17 @@
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="16.5" hidden="1">
       <c r="A178" s="1">
         <v>542</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="C178" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D178" s="11"/>
+      <c r="D178" s="7"/>
       <c r="E178" s="7" t="s">
         <v>9</v>
       </c>
@@ -4843,31 +4816,31 @@
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="16.5" hidden="1">
       <c r="A179" s="1">
         <v>544</v>
       </c>
       <c r="B179" s="4"/>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D179" s="11"/>
+      <c r="D179" s="7"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="16.5" hidden="1">
       <c r="A180" s="1">
         <v>545</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C180" s="10">
+      <c r="C180" s="9">
         <v>4</v>
       </c>
-      <c r="D180" s="11"/>
+      <c r="D180" s="7"/>
       <c r="E180" s="7" t="s">
         <v>9</v>
       </c>
@@ -4877,17 +4850,17 @@
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="16.5" hidden="1">
       <c r="A181" s="1">
         <v>546</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C181" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D181" s="11"/>
+      <c r="D181" s="7"/>
       <c r="E181" s="7" t="s">
         <v>9</v>
       </c>
@@ -4897,17 +4870,17 @@
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="16.5" hidden="1">
       <c r="A182" s="1">
         <v>547</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C182" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D182" s="11"/>
+      <c r="D182" s="7"/>
       <c r="E182" s="7" t="s">
         <v>9</v>
       </c>
@@ -4917,17 +4890,17 @@
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="16.5" hidden="1">
       <c r="A183" s="1">
         <v>549</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C183" s="10">
-        <v>0</v>
-      </c>
-      <c r="D183" s="11"/>
+      <c r="C183" s="9">
+        <v>0</v>
+      </c>
+      <c r="D183" s="7"/>
       <c r="E183" s="7" t="s">
         <v>9</v>
       </c>
@@ -4937,17 +4910,17 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="16.5" hidden="1">
       <c r="A184" s="1">
         <v>550</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C184" s="10">
-        <v>0</v>
-      </c>
-      <c r="D184" s="11"/>
+      <c r="C184" s="9">
+        <v>0</v>
+      </c>
+      <c r="D184" s="7"/>
       <c r="E184" s="7" t="s">
         <v>9</v>
       </c>
@@ -4957,17 +4930,17 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="16.5" hidden="1">
       <c r="A185" s="1">
         <v>551</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="C185" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D185" s="11"/>
+      <c r="D185" s="7"/>
       <c r="E185" s="7" t="s">
         <v>9</v>
       </c>
@@ -4977,17 +4950,17 @@
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="16.5" hidden="1">
       <c r="A186" s="1">
         <v>552</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C186" s="10">
-        <v>0</v>
-      </c>
-      <c r="D186" s="11"/>
+      <c r="C186" s="9">
+        <v>0</v>
+      </c>
+      <c r="D186" s="7"/>
       <c r="E186" s="7" t="s">
         <v>9</v>
       </c>
@@ -4997,17 +4970,17 @@
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="16.5" hidden="1">
       <c r="A187" s="1">
         <v>553</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D187" s="11"/>
+      <c r="D187" s="7"/>
       <c r="E187" s="7" t="s">
         <v>9</v>
       </c>
@@ -5017,17 +4990,17 @@
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="16.5" hidden="1">
       <c r="A188" s="1">
         <v>554</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D188" s="11"/>
+      <c r="D188" s="7"/>
       <c r="E188" s="7" t="s">
         <v>9</v>
       </c>
@@ -5037,17 +5010,17 @@
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="16.5" hidden="1">
       <c r="A189" s="1">
         <v>555</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C189" s="10">
+      <c r="C189" s="9">
         <v>4</v>
       </c>
-      <c r="D189" s="11"/>
+      <c r="D189" s="7"/>
       <c r="E189" s="7" t="s">
         <v>9</v>
       </c>
@@ -5057,17 +5030,17 @@
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="16.5" hidden="1">
       <c r="A190" s="1">
         <v>556</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E190" s="7" t="s">
@@ -5079,17 +5052,17 @@
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="16.5" hidden="1">
       <c r="A191" s="1">
         <v>557</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="D191" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E191" s="7" t="s">
@@ -5101,17 +5074,17 @@
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="16.5" hidden="1">
       <c r="A192" s="1">
         <v>558</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="D192" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E192" s="7" t="s">
@@ -5123,17 +5096,17 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="16.5" hidden="1">
       <c r="A193" s="1">
         <v>559</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C193" s="10">
-        <v>0</v>
-      </c>
-      <c r="D193" s="11"/>
+      <c r="C193" s="9">
+        <v>0</v>
+      </c>
+      <c r="D193" s="7"/>
       <c r="E193" s="7" t="s">
         <v>9</v>
       </c>
@@ -5143,17 +5116,17 @@
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="16.5" hidden="1">
       <c r="A194" s="1">
         <v>560</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D194" s="11"/>
+      <c r="D194" s="7"/>
       <c r="E194" s="7" t="s">
         <v>9</v>
       </c>
@@ -5163,17 +5136,17 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="16.5" hidden="1">
       <c r="A195" s="1">
         <v>561</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E195" s="7" t="s">
@@ -5185,17 +5158,17 @@
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="16.5" hidden="1">
       <c r="A196" s="1">
         <v>563</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C196" s="10">
+      <c r="C196" s="9">
         <v>4</v>
       </c>
-      <c r="D196" s="11"/>
+      <c r="D196" s="7"/>
       <c r="E196" s="7" t="s">
         <v>9</v>
       </c>
@@ -5205,17 +5178,17 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="16.5" hidden="1">
       <c r="A197" s="1">
         <v>564</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C197" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D197" s="11"/>
+      <c r="D197" s="7"/>
       <c r="E197" s="7" t="s">
         <v>9</v>
       </c>
@@ -5225,17 +5198,17 @@
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="16.5" hidden="1">
       <c r="A198" s="1">
         <v>565</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C198" s="10" t="s">
+      <c r="C198" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D198" s="11" t="s">
+      <c r="D198" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E198" s="7" t="s">
@@ -5247,17 +5220,17 @@
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="16.5" hidden="1">
       <c r="A199" s="1">
         <v>569</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C199" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D199" s="11"/>
+      <c r="D199" s="7"/>
       <c r="E199" s="7" t="s">
         <v>9</v>
       </c>
@@ -5267,17 +5240,17 @@
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="16.5" hidden="1">
       <c r="A200" s="1">
         <v>570</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D200" s="11" t="s">
+      <c r="D200" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E200" s="7" t="s">
@@ -5289,17 +5262,17 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="16.5" hidden="1">
       <c r="A201" s="1">
         <v>571</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D201" s="11" t="s">
+      <c r="D201" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -5311,17 +5284,17 @@
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="16.5" hidden="1">
       <c r="A202" s="1">
         <v>572</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C202" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D202" s="11" t="s">
+      <c r="D202" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E202" s="7" t="s">
@@ -5333,17 +5306,17 @@
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="16.5" hidden="1">
       <c r="A203" s="1">
         <v>573</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="C203" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D203" s="11" t="s">
+      <c r="D203" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E203" s="7" t="s">
@@ -5355,17 +5328,17 @@
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="16.5" hidden="1">
       <c r="A204" s="1">
         <v>576</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="C204" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D204" s="11" t="s">
+      <c r="D204" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E204" s="7" t="s">
@@ -5377,17 +5350,17 @@
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="16.5" hidden="1">
       <c r="A205" s="1">
         <v>577</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C205" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D205" s="11" t="s">
+      <c r="D205" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -5399,17 +5372,17 @@
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="16.5" hidden="1">
       <c r="A206" s="1">
         <v>578</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C206" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D206" s="11" t="s">
+      <c r="D206" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E206" s="7" t="s">
@@ -5421,17 +5394,17 @@
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="16.5" hidden="1">
       <c r="A207" s="1">
         <v>580</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C207" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D207" s="11"/>
+      <c r="D207" s="7"/>
       <c r="E207" s="7" t="s">
         <v>9</v>
       </c>
@@ -5441,17 +5414,17 @@
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="16.5" hidden="1">
       <c r="A208" s="1">
         <v>581</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D208" s="11"/>
+      <c r="D208" s="7"/>
       <c r="E208" s="7" t="s">
         <v>9</v>
       </c>
@@ -5461,17 +5434,17 @@
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="16.5" hidden="1">
       <c r="A209" s="1">
         <v>582</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="C209" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D209" s="11" t="s">
+      <c r="D209" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E209" s="7" t="s">
@@ -5483,17 +5456,17 @@
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="16.5" hidden="1">
       <c r="A210" s="1">
         <v>584</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C210" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D210" s="11"/>
+      <c r="D210" s="7"/>
       <c r="E210" s="7" t="s">
         <v>9</v>
       </c>
@@ -5503,17 +5476,17 @@
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="16.5" hidden="1">
       <c r="A211" s="1">
         <v>585</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C211" s="10">
-        <v>0</v>
-      </c>
-      <c r="D211" s="11"/>
+      <c r="C211" s="9">
+        <v>0</v>
+      </c>
+      <c r="D211" s="7"/>
       <c r="E211" s="7" t="s">
         <v>9</v>
       </c>
@@ -5523,17 +5496,17 @@
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="16.5" hidden="1">
       <c r="A212" s="1">
         <v>586</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="C212" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D212" s="11" t="s">
+      <c r="D212" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E212" s="7" t="s">
@@ -5545,17 +5518,17 @@
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="16.5" hidden="1">
       <c r="A213" s="1">
         <v>587</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C213" s="10">
+      <c r="C213" s="9">
         <v>4</v>
       </c>
-      <c r="D213" s="11"/>
+      <c r="D213" s="7"/>
       <c r="E213" s="7" t="s">
         <v>9</v>
       </c>
@@ -5565,17 +5538,17 @@
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="16.5" hidden="1">
       <c r="A214" s="1">
         <v>588</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="C214" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D214" s="11"/>
+      <c r="D214" s="7"/>
       <c r="E214" s="7" t="s">
         <v>9</v>
       </c>
@@ -5585,17 +5558,17 @@
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="16.5" hidden="1">
       <c r="A215" s="1">
         <v>590</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="C215" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D215" s="11" t="s">
+      <c r="D215" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E215" s="7" t="s">
@@ -5607,35 +5580,29 @@
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="16.5" hidden="1">
       <c r="A216" s="1">
         <v>591</v>
       </c>
-      <c r="B216" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C216" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D216" s="11"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="7"/>
       <c r="E216" s="7"/>
-      <c r="F216" s="16" t="s">
-        <v>213</v>
-      </c>
+      <c r="F216" s="7"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="16.5" hidden="1">
       <c r="A217" s="1">
         <v>592</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C217" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C217" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D217" s="11" t="s">
+      <c r="D217" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E217" s="7" t="s">
@@ -5647,17 +5614,17 @@
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="16.5" hidden="1">
       <c r="A218" s="1">
         <v>593</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C218" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C218" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D218" s="11" t="s">
+      <c r="D218" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E218" s="7" t="s">
@@ -5669,17 +5636,17 @@
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="16.5" hidden="1">
       <c r="A219" s="1">
         <v>594</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C219" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C219" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D219" s="11"/>
+      <c r="D219" s="7"/>
       <c r="E219" s="7" t="s">
         <v>9</v>
       </c>
@@ -5689,31 +5656,31 @@
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="16.5" hidden="1">
       <c r="A220" s="1">
         <v>596</v>
       </c>
       <c r="B220" s="4"/>
-      <c r="C220" s="10" t="s">
+      <c r="C220" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D220" s="11"/>
+      <c r="D220" s="7"/>
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="16.5" hidden="1">
       <c r="A221" s="1">
         <v>597</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C221" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C221" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="D221" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E221" s="7" t="s">
@@ -5725,17 +5692,17 @@
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="16.5" hidden="1">
       <c r="A222" s="1">
         <v>598</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C222" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C222" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D222" s="11"/>
+      <c r="D222" s="7"/>
       <c r="E222" s="7" t="s">
         <v>9</v>
       </c>
@@ -5745,17 +5712,17 @@
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="16.5" hidden="1">
       <c r="A223" s="1">
         <v>599</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C223" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C223" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D223" s="11" t="s">
+      <c r="D223" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E223" s="7" t="s">
@@ -5767,17 +5734,17 @@
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="16.5" hidden="1">
       <c r="A224" s="1">
         <v>600</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C224" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C224" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D224" s="11" t="s">
+      <c r="D224" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E224" s="7" t="s">
@@ -5789,17 +5756,17 @@
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="16.5" hidden="1">
       <c r="A225" s="1">
         <v>601</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C225" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C225" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D225" s="11" t="s">
+      <c r="D225" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E225" s="7" t="s">
@@ -5811,17 +5778,17 @@
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="16.5" hidden="1">
       <c r="A226" s="1">
         <v>602</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C226" s="10">
-        <v>0</v>
-      </c>
-      <c r="D226" s="11"/>
+        <v>221</v>
+      </c>
+      <c r="C226" s="9">
+        <v>0</v>
+      </c>
+      <c r="D226" s="7"/>
       <c r="E226" s="7" t="s">
         <v>9</v>
       </c>
@@ -5831,17 +5798,17 @@
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="16.5" hidden="1">
       <c r="A227" s="1">
         <v>603</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C227" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C227" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D227" s="11" t="s">
+      <c r="D227" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E227" s="7" t="s">
@@ -5853,17 +5820,17 @@
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="16.5" hidden="1">
       <c r="A228" s="1">
         <v>604</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C228" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D228" s="11"/>
+      <c r="D228" s="7"/>
       <c r="E228" s="7" t="s">
         <v>9</v>
       </c>
@@ -5873,17 +5840,17 @@
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="16.5" hidden="1">
       <c r="A229" s="1">
         <v>605</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C229" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C229" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D229" s="11"/>
+      <c r="D229" s="7"/>
       <c r="E229" s="7" t="s">
         <v>9</v>
       </c>
@@ -5893,17 +5860,17 @@
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="16.5" hidden="1">
       <c r="A230" s="1">
         <v>606</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C230" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C230" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D230" s="11"/>
+      <c r="D230" s="7"/>
       <c r="E230" s="7" t="s">
         <v>9</v>
       </c>
@@ -5913,17 +5880,17 @@
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="16.5" hidden="1">
       <c r="A231" s="1">
         <v>607</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C231" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C231" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D231" s="11" t="s">
+      <c r="D231" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E231" s="7" t="s">
@@ -5935,17 +5902,17 @@
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="16.5" hidden="1">
       <c r="A232" s="1">
         <v>609</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C232" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C232" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D232" s="11" t="s">
+      <c r="D232" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E232" s="7" t="s">
@@ -5957,17 +5924,17 @@
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="16.5" hidden="1">
       <c r="A233" s="1">
         <v>612</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C233" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C233" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D233" s="11" t="s">
+      <c r="D233" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E233" s="7" t="s">
@@ -5979,17 +5946,17 @@
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="16.5" hidden="1">
       <c r="A234" s="1">
         <v>613</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C234" s="10">
-        <v>0</v>
-      </c>
-      <c r="D234" s="11"/>
+        <v>229</v>
+      </c>
+      <c r="C234" s="9">
+        <v>0</v>
+      </c>
+      <c r="D234" s="7"/>
       <c r="E234" s="7" t="s">
         <v>9</v>
       </c>
@@ -5999,17 +5966,17 @@
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="16.5" hidden="1">
       <c r="A235" s="1">
         <v>614</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C235" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C235" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D235" s="11"/>
+      <c r="D235" s="7"/>
       <c r="E235" s="7" t="s">
         <v>9</v>
       </c>
@@ -6019,17 +5986,17 @@
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="16.5" hidden="1">
       <c r="A236" s="1">
         <v>615</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C236" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C236" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D236" s="11"/>
+      <c r="D236" s="7"/>
       <c r="E236" s="7" t="s">
         <v>9</v>
       </c>
@@ -6039,17 +6006,17 @@
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="16.5" hidden="1">
       <c r="A237" s="1">
         <v>616</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C237" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C237" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D237" s="11" t="s">
+      <c r="D237" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E237" s="7" t="s">
@@ -6061,17 +6028,17 @@
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="16.5" hidden="1">
       <c r="A238" s="1">
         <v>617</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C238" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C238" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D238" s="11"/>
+      <c r="D238" s="7"/>
       <c r="E238" s="7" t="s">
         <v>9</v>
       </c>
@@ -6081,17 +6048,17 @@
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="16.5" hidden="1">
       <c r="A239" s="1">
         <v>618</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C239" s="10">
+        <v>234</v>
+      </c>
+      <c r="C239" s="9">
         <v>4</v>
       </c>
-      <c r="D239" s="11"/>
+      <c r="D239" s="7"/>
       <c r="E239" s="7" t="s">
         <v>9</v>
       </c>
@@ -6101,17 +6068,17 @@
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="16.5" hidden="1">
       <c r="A240" s="1">
         <v>619</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C240" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C240" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D240" s="11"/>
+      <c r="D240" s="7"/>
       <c r="E240" s="7" t="s">
         <v>9</v>
       </c>
@@ -6121,17 +6088,17 @@
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="16.5" hidden="1">
       <c r="A241" s="1">
         <v>620</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C241" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C241" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D241" s="11"/>
+      <c r="D241" s="7"/>
       <c r="E241" s="7" t="s">
         <v>9</v>
       </c>
@@ -6141,17 +6108,17 @@
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="16.5" hidden="1">
       <c r="A242" s="1">
         <v>621</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C242" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D242" s="11" t="s">
+      <c r="D242" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E242" s="7" t="s">
@@ -6163,17 +6130,17 @@
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="16.5" hidden="1">
       <c r="A243" s="1">
         <v>623</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C243" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D243" s="11"/>
+      <c r="D243" s="7"/>
       <c r="E243" s="7" t="s">
         <v>9</v>
       </c>
@@ -6183,17 +6150,17 @@
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="16.5" hidden="1">
       <c r="A244" s="1">
         <v>626</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C244" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C244" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D244" s="11"/>
+      <c r="D244" s="7"/>
       <c r="E244" s="7" t="s">
         <v>9</v>
       </c>
@@ -6203,17 +6170,17 @@
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="16.5" hidden="1">
       <c r="A245" s="1">
         <v>627</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C245" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C245" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D245" s="11"/>
+      <c r="D245" s="7"/>
       <c r="E245" s="7" t="s">
         <v>9</v>
       </c>
@@ -6223,17 +6190,17 @@
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="16.5" hidden="1">
       <c r="A246" s="1">
         <v>629</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C246" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C246" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D246" s="11" t="s">
+      <c r="D246" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E246" s="7" t="s">
@@ -6245,17 +6212,17 @@
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="16.5" hidden="1">
       <c r="A247" s="1">
         <v>631</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C247" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C247" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D247" s="11" t="s">
+      <c r="D247" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E247" s="7" t="s">
@@ -6267,17 +6234,17 @@
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="16.5" hidden="1">
       <c r="A248" s="1">
         <v>635</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C248" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D248" s="11" t="s">
+      <c r="D248" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E248" s="7" t="s">
@@ -6289,17 +6256,17 @@
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="16.5" hidden="1">
       <c r="A249" s="1">
         <v>636</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C249" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C249" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D249" s="11"/>
+      <c r="D249" s="7"/>
       <c r="E249" s="7" t="s">
         <v>9</v>
       </c>
@@ -6309,41 +6276,41 @@
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="16.5" hidden="1">
       <c r="A250" s="1">
         <v>640</v>
       </c>
       <c r="B250" s="4"/>
-      <c r="C250" s="10"/>
-      <c r="D250" s="11"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="7"/>
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="16.5" hidden="1">
       <c r="A251" s="1">
         <v>641</v>
       </c>
       <c r="B251" s="4"/>
-      <c r="C251" s="10"/>
-      <c r="D251" s="11"/>
+      <c r="C251" s="9"/>
+      <c r="D251" s="7"/>
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="16.5" hidden="1">
       <c r="A252" s="1">
         <v>642</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C252" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C252" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D252" s="11" t="s">
+      <c r="D252" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E252" s="7" t="s">
@@ -6355,29 +6322,29 @@
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="16.5" hidden="1">
       <c r="A253" s="1">
         <v>643</v>
       </c>
       <c r="B253" s="4"/>
-      <c r="C253" s="10"/>
-      <c r="D253" s="11"/>
+      <c r="C253" s="9"/>
+      <c r="D253" s="7"/>
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="16.5" hidden="1">
       <c r="A254" s="1">
         <v>644</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C254" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D254" s="11"/>
+      <c r="D254" s="7"/>
       <c r="E254" s="7" t="s">
         <v>9</v>
       </c>
@@ -6387,29 +6354,29 @@
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="16.5" hidden="1">
       <c r="A255" s="1">
         <v>645</v>
       </c>
       <c r="B255" s="4"/>
-      <c r="C255" s="10"/>
-      <c r="D255" s="11"/>
+      <c r="C255" s="9"/>
+      <c r="D255" s="7"/>
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="16.5" hidden="1">
       <c r="A256" s="1">
         <v>646</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C256" s="10">
-        <v>0</v>
-      </c>
-      <c r="D256" s="11"/>
+        <v>247</v>
+      </c>
+      <c r="C256" s="9">
+        <v>0</v>
+      </c>
+      <c r="D256" s="7"/>
       <c r="E256" s="7" t="s">
         <v>9</v>
       </c>
@@ -6419,41 +6386,41 @@
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="16.5" hidden="1">
       <c r="A257" s="1">
         <v>647</v>
       </c>
       <c r="B257" s="4"/>
-      <c r="C257" s="10"/>
-      <c r="D257" s="11"/>
+      <c r="C257" s="9"/>
+      <c r="D257" s="7"/>
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="16.5" hidden="1">
       <c r="A258" s="1">
         <v>648</v>
       </c>
       <c r="B258" s="4"/>
-      <c r="C258" s="10"/>
-      <c r="D258" s="11"/>
+      <c r="C258" s="9"/>
+      <c r="D258" s="7"/>
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="16.5" hidden="1">
       <c r="A259" s="1">
         <v>649</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C259" s="10">
-        <v>0</v>
-      </c>
-      <c r="D259" s="11"/>
+        <v>248</v>
+      </c>
+      <c r="C259" s="9">
+        <v>0</v>
+      </c>
+      <c r="D259" s="7"/>
       <c r="E259" s="7" t="s">
         <v>9</v>
       </c>
@@ -6463,41 +6430,41 @@
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="16.5" hidden="1">
       <c r="A260" s="1">
         <v>650</v>
       </c>
       <c r="B260" s="4"/>
-      <c r="C260" s="10"/>
-      <c r="D260" s="11"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="7"/>
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="16.5" hidden="1">
       <c r="A261" s="1">
         <v>651</v>
       </c>
       <c r="B261" s="4"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="11"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="7"/>
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="16.5" hidden="1">
       <c r="A262" s="1">
         <v>700</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C262" s="10">
-        <v>0</v>
-      </c>
-      <c r="D262" s="11"/>
+        <v>249</v>
+      </c>
+      <c r="C262" s="9">
+        <v>0</v>
+      </c>
+      <c r="D262" s="7"/>
       <c r="E262" s="7" t="s">
         <v>9</v>
       </c>
@@ -6507,17 +6474,17 @@
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="16.5" hidden="1">
       <c r="A263" s="1">
         <v>701</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C263" s="10">
-        <v>0</v>
-      </c>
-      <c r="D263" s="11"/>
+        <v>250</v>
+      </c>
+      <c r="C263" s="9">
+        <v>0</v>
+      </c>
+      <c r="D263" s="7"/>
       <c r="E263" s="7" t="s">
         <v>9</v>
       </c>
@@ -6527,17 +6494,17 @@
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="16.5" hidden="1">
       <c r="A264" s="1">
         <v>702</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C264" s="10">
-        <v>0</v>
-      </c>
-      <c r="D264" s="11"/>
+        <v>251</v>
+      </c>
+      <c r="C264" s="9">
+        <v>0</v>
+      </c>
+      <c r="D264" s="7"/>
       <c r="E264" s="7" t="s">
         <v>9</v>
       </c>
@@ -6547,17 +6514,17 @@
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="16.5" hidden="1">
       <c r="A265" s="1">
         <v>703</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C265" s="10">
-        <v>0</v>
-      </c>
-      <c r="D265" s="11"/>
+        <v>252</v>
+      </c>
+      <c r="C265" s="9">
+        <v>0</v>
+      </c>
+      <c r="D265" s="7"/>
       <c r="E265" s="7" t="s">
         <v>9</v>
       </c>
@@ -6567,17 +6534,17 @@
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="16.5" hidden="1">
       <c r="A266" s="1">
         <v>704</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C266" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C266" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D266" s="11"/>
+      <c r="D266" s="7"/>
       <c r="E266" s="7" t="s">
         <v>9</v>
       </c>
@@ -6587,17 +6554,17 @@
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="16.5" hidden="1">
       <c r="A267" s="1">
         <v>705</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C267" s="10">
-        <v>0</v>
-      </c>
-      <c r="D267" s="11"/>
+        <v>254</v>
+      </c>
+      <c r="C267" s="9">
+        <v>0</v>
+      </c>
+      <c r="D267" s="7"/>
       <c r="E267" s="7" t="s">
         <v>9</v>
       </c>
@@ -6607,17 +6574,17 @@
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="16.5" hidden="1">
       <c r="A268" s="1">
         <v>706</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C268" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C268" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D268" s="11"/>
+      <c r="D268" s="7"/>
       <c r="E268" s="7" t="s">
         <v>9</v>
       </c>
@@ -6627,31 +6594,31 @@
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="16.5" hidden="1">
       <c r="A269" s="1">
         <v>707</v>
       </c>
       <c r="B269" s="4"/>
-      <c r="C269" s="10" t="s">
+      <c r="C269" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D269" s="11"/>
+      <c r="D269" s="7"/>
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="16.5" hidden="1">
       <c r="A270" s="1">
         <v>708</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C270" s="10">
-        <v>0</v>
-      </c>
-      <c r="D270" s="11"/>
+        <v>256</v>
+      </c>
+      <c r="C270" s="9">
+        <v>0</v>
+      </c>
+      <c r="D270" s="7"/>
       <c r="E270" s="7" t="s">
         <v>9</v>
       </c>
@@ -6661,17 +6628,17 @@
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="16.5" hidden="1">
       <c r="A271" s="1">
         <v>709</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C271" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C271" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D271" s="11"/>
+      <c r="D271" s="7"/>
       <c r="E271" s="7" t="s">
         <v>9</v>
       </c>
@@ -6681,29 +6648,29 @@
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="16.5" hidden="1">
       <c r="A272" s="1">
         <v>710</v>
       </c>
       <c r="B272" s="4"/>
-      <c r="C272" s="10"/>
-      <c r="D272" s="11"/>
+      <c r="C272" s="9"/>
+      <c r="D272" s="7"/>
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="16.5" hidden="1">
       <c r="A273" s="1">
         <v>711</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C273" s="10">
-        <v>0</v>
-      </c>
-      <c r="D273" s="11"/>
+        <v>258</v>
+      </c>
+      <c r="C273" s="9">
+        <v>0</v>
+      </c>
+      <c r="D273" s="7"/>
       <c r="E273" s="7" t="s">
         <v>9</v>
       </c>
@@ -6713,17 +6680,17 @@
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="16.5" hidden="1">
       <c r="A274" s="1">
         <v>712</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C274" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C274" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D274" s="11"/>
+      <c r="D274" s="7"/>
       <c r="E274" s="7" t="s">
         <v>9</v>
       </c>
@@ -6733,17 +6700,17 @@
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="16.5" hidden="1">
       <c r="A275" s="1">
         <v>713</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C275" s="10">
-        <v>0</v>
-      </c>
-      <c r="D275" s="11"/>
+        <v>260</v>
+      </c>
+      <c r="C275" s="9">
+        <v>0</v>
+      </c>
+      <c r="D275" s="7"/>
       <c r="E275" s="7" t="s">
         <v>9</v>
       </c>
@@ -6753,17 +6720,17 @@
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="16.5" hidden="1">
       <c r="A276" s="1">
         <v>714</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C276" s="10">
-        <v>0</v>
-      </c>
-      <c r="D276" s="11"/>
+        <v>261</v>
+      </c>
+      <c r="C276" s="9">
+        <v>0</v>
+      </c>
+      <c r="D276" s="7"/>
       <c r="E276" s="7" t="s">
         <v>9</v>
       </c>
@@ -6773,17 +6740,17 @@
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="16.5" hidden="1">
       <c r="A277" s="1">
         <v>715</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C277" s="10">
-        <v>0</v>
-      </c>
-      <c r="D277" s="11"/>
+        <v>262</v>
+      </c>
+      <c r="C277" s="9">
+        <v>0</v>
+      </c>
+      <c r="D277" s="7"/>
       <c r="E277" s="7" t="s">
         <v>9</v>
       </c>
@@ -6793,17 +6760,17 @@
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="16.5" hidden="1">
       <c r="A278" s="1">
         <v>716</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C278" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C278" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D278" s="11"/>
+      <c r="D278" s="7"/>
       <c r="E278" s="7" t="s">
         <v>9</v>
       </c>
@@ -6813,17 +6780,17 @@
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="16.5" hidden="1">
       <c r="A279" s="1">
         <v>717</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C279" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C279" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D279" s="11"/>
+      <c r="D279" s="7"/>
       <c r="E279" s="7" t="s">
         <v>9</v>
       </c>
@@ -6833,17 +6800,17 @@
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="16.5" hidden="1">
       <c r="A280" s="1">
         <v>718</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C280" s="10">
-        <v>0</v>
-      </c>
-      <c r="D280" s="11"/>
+        <v>265</v>
+      </c>
+      <c r="C280" s="9">
+        <v>0</v>
+      </c>
+      <c r="D280" s="7"/>
       <c r="E280" s="7" t="s">
         <v>9</v>
       </c>
@@ -6853,17 +6820,17 @@
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="16.5" hidden="1">
       <c r="A281" s="1">
         <v>719</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C281" s="10">
-        <v>0</v>
-      </c>
-      <c r="D281" s="11"/>
+        <v>266</v>
+      </c>
+      <c r="C281" s="9">
+        <v>0</v>
+      </c>
+      <c r="D281" s="7"/>
       <c r="E281" s="7" t="s">
         <v>9</v>
       </c>
@@ -6873,17 +6840,17 @@
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="16.5" hidden="1">
       <c r="A282" s="1">
         <v>750</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C282" s="10">
-        <v>0</v>
-      </c>
-      <c r="D282" s="11"/>
+        <v>267</v>
+      </c>
+      <c r="C282" s="9">
+        <v>0</v>
+      </c>
+      <c r="D282" s="7"/>
       <c r="E282" s="7" t="s">
         <v>9</v>
       </c>
@@ -6893,17 +6860,17 @@
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="16.5" hidden="1">
       <c r="A283" s="1">
         <v>751</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C283" s="10">
-        <v>0</v>
-      </c>
-      <c r="D283" s="11"/>
+        <v>268</v>
+      </c>
+      <c r="C283" s="9">
+        <v>0</v>
+      </c>
+      <c r="D283" s="7"/>
       <c r="E283" s="7" t="s">
         <v>9</v>
       </c>
@@ -6913,17 +6880,17 @@
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="16.5" hidden="1">
       <c r="A284" s="1">
         <v>752</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C284" s="10">
-        <v>0</v>
-      </c>
-      <c r="D284" s="11"/>
+        <v>269</v>
+      </c>
+      <c r="C284" s="9">
+        <v>0</v>
+      </c>
+      <c r="D284" s="7"/>
       <c r="E284" s="7" t="s">
         <v>9</v>
       </c>
@@ -6933,17 +6900,17 @@
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="16.5" hidden="1">
       <c r="A285" s="1">
         <v>753</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C285" s="10">
-        <v>0</v>
-      </c>
-      <c r="D285" s="11"/>
+        <v>270</v>
+      </c>
+      <c r="C285" s="9">
+        <v>0</v>
+      </c>
+      <c r="D285" s="7"/>
       <c r="E285" s="7" t="s">
         <v>9</v>
       </c>
@@ -6953,29 +6920,29 @@
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="16.5" hidden="1">
       <c r="A286" s="1">
         <v>754</v>
       </c>
       <c r="B286" s="4"/>
-      <c r="C286" s="10"/>
-      <c r="D286" s="11"/>
+      <c r="C286" s="9"/>
+      <c r="D286" s="7"/>
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="16.5" hidden="1">
       <c r="A287" s="1">
         <v>755</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C287" s="10">
-        <v>0</v>
-      </c>
-      <c r="D287" s="11"/>
+        <v>271</v>
+      </c>
+      <c r="C287" s="9">
+        <v>0</v>
+      </c>
+      <c r="D287" s="7"/>
       <c r="E287" s="7" t="s">
         <v>9</v>
       </c>
@@ -6985,43 +6952,43 @@
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="16.5" hidden="1">
       <c r="A288" s="1">
         <v>756</v>
       </c>
       <c r="B288" s="4"/>
-      <c r="C288" s="10">
-        <v>0</v>
-      </c>
-      <c r="D288" s="11"/>
+      <c r="C288" s="9">
+        <v>0</v>
+      </c>
+      <c r="D288" s="7"/>
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="16.5" hidden="1">
       <c r="A289" s="1">
         <v>757</v>
       </c>
       <c r="B289" s="4"/>
-      <c r="C289" s="10"/>
-      <c r="D289" s="11"/>
+      <c r="C289" s="9"/>
+      <c r="D289" s="7"/>
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="16.5" hidden="1">
       <c r="A290" s="1">
         <v>758</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C290" s="10">
-        <v>0</v>
-      </c>
-      <c r="D290" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C290" s="9">
+        <v>0</v>
+      </c>
+      <c r="D290" s="7"/>
       <c r="E290" s="7" t="s">
         <v>9</v>
       </c>
@@ -7031,17 +6998,17 @@
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="16.5" hidden="1">
       <c r="A291" s="1">
         <v>759</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C291" s="10">
-        <v>0</v>
-      </c>
-      <c r="D291" s="11"/>
+        <v>273</v>
+      </c>
+      <c r="C291" s="9">
+        <v>0</v>
+      </c>
+      <c r="D291" s="7"/>
       <c r="E291" s="7" t="s">
         <v>9</v>
       </c>
@@ -7051,17 +7018,17 @@
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="16.5" hidden="1">
       <c r="A292" s="1">
         <v>760</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C292" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C292" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D292" s="11"/>
+      <c r="D292" s="7"/>
       <c r="E292" s="7" t="s">
         <v>9</v>
       </c>
@@ -7071,17 +7038,17 @@
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="16.5" hidden="1">
       <c r="A293" s="1">
         <v>761</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C293" s="10">
-        <v>0</v>
-      </c>
-      <c r="D293" s="11"/>
+        <v>275</v>
+      </c>
+      <c r="C293" s="9">
+        <v>0</v>
+      </c>
+      <c r="D293" s="7"/>
       <c r="E293" s="7" t="s">
         <v>9</v>
       </c>
@@ -7091,17 +7058,17 @@
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="16.5" hidden="1">
       <c r="A294" s="1">
         <v>762</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C294" s="10">
-        <v>0</v>
-      </c>
-      <c r="D294" s="11"/>
+        <v>276</v>
+      </c>
+      <c r="C294" s="9">
+        <v>0</v>
+      </c>
+      <c r="D294" s="7"/>
       <c r="E294" s="7" t="s">
         <v>9</v>
       </c>
@@ -7111,17 +7078,17 @@
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="16.5" hidden="1">
       <c r="A295" s="1">
         <v>763</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C295" s="10">
-        <v>0</v>
-      </c>
-      <c r="D295" s="11"/>
+        <v>277</v>
+      </c>
+      <c r="C295" s="9">
+        <v>0</v>
+      </c>
+      <c r="D295" s="7"/>
       <c r="E295" s="7" t="s">
         <v>9</v>
       </c>
@@ -7131,29 +7098,29 @@
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="16.5" hidden="1">
       <c r="A296" s="1">
         <v>764</v>
       </c>
       <c r="B296" s="4"/>
-      <c r="C296" s="10"/>
-      <c r="D296" s="11"/>
+      <c r="C296" s="9"/>
+      <c r="D296" s="7"/>
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="16.5" hidden="1">
       <c r="A297" s="1">
         <v>765</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C297" s="10">
-        <v>0</v>
-      </c>
-      <c r="D297" s="11"/>
+        <v>278</v>
+      </c>
+      <c r="C297" s="9">
+        <v>0</v>
+      </c>
+      <c r="D297" s="7"/>
       <c r="E297" s="7" t="s">
         <v>9</v>
       </c>
@@ -7163,17 +7130,17 @@
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="16.5" hidden="1">
       <c r="A298" s="1">
         <v>766</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C298" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C298" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D298" s="11"/>
+      <c r="D298" s="7"/>
       <c r="E298" s="7" t="s">
         <v>9</v>
       </c>
@@ -7183,29 +7150,29 @@
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="16.5" hidden="1">
       <c r="A299" s="1">
         <v>767</v>
       </c>
       <c r="B299" s="4"/>
-      <c r="C299" s="10"/>
-      <c r="D299" s="11"/>
+      <c r="C299" s="9"/>
+      <c r="D299" s="7"/>
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="16.5" hidden="1">
       <c r="A300" s="1">
         <v>768</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C300" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C300" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D300" s="11"/>
+      <c r="D300" s="7"/>
       <c r="E300" s="7" t="s">
         <v>9</v>
       </c>
@@ -7215,17 +7182,17 @@
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="16.5" hidden="1">
       <c r="A301" s="1">
         <v>769</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C301" s="10">
-        <v>0</v>
-      </c>
-      <c r="D301" s="11"/>
+        <v>281</v>
+      </c>
+      <c r="C301" s="9">
+        <v>0</v>
+      </c>
+      <c r="D301" s="7"/>
       <c r="E301" s="7" t="s">
         <v>9</v>
       </c>
@@ -7235,17 +7202,17 @@
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="16.5" hidden="1">
       <c r="A302" s="1">
         <v>801</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C302" s="10">
-        <v>0</v>
-      </c>
-      <c r="D302" s="11"/>
+        <v>282</v>
+      </c>
+      <c r="C302" s="9">
+        <v>0</v>
+      </c>
+      <c r="D302" s="7"/>
       <c r="E302" s="7" t="s">
         <v>9</v>
       </c>
@@ -7255,17 +7222,17 @@
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="16.5" hidden="1">
       <c r="A303" s="1">
         <v>802</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C303" s="10">
-        <v>0</v>
-      </c>
-      <c r="D303" s="11"/>
+        <v>283</v>
+      </c>
+      <c r="C303" s="9">
+        <v>0</v>
+      </c>
+      <c r="D303" s="7"/>
       <c r="E303" s="7" t="s">
         <v>9</v>
       </c>
@@ -7275,31 +7242,31 @@
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="16.5" hidden="1">
       <c r="A304" s="1">
         <v>803</v>
       </c>
       <c r="B304" s="4"/>
-      <c r="C304" s="10" t="s">
+      <c r="C304" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D304" s="11"/>
+      <c r="D304" s="7"/>
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="16.5" hidden="1">
       <c r="A305" s="1">
         <v>804</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C305" s="10">
-        <v>0</v>
-      </c>
-      <c r="D305" s="11"/>
+        <v>284</v>
+      </c>
+      <c r="C305" s="9">
+        <v>0</v>
+      </c>
+      <c r="D305" s="7"/>
       <c r="E305" s="7" t="s">
         <v>9</v>
       </c>
@@ -7309,17 +7276,17 @@
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="16.5" hidden="1">
       <c r="A306" s="1">
         <v>805</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C306" s="10">
-        <v>0</v>
-      </c>
-      <c r="D306" s="11"/>
+        <v>285</v>
+      </c>
+      <c r="C306" s="9">
+        <v>0</v>
+      </c>
+      <c r="D306" s="7"/>
       <c r="E306" s="7" t="s">
         <v>9</v>
       </c>
@@ -7329,17 +7296,17 @@
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="16.5" hidden="1">
       <c r="A307" s="1">
         <v>806</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C307" s="10">
-        <v>0</v>
-      </c>
-      <c r="D307" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="C307" s="9">
+        <v>0</v>
+      </c>
+      <c r="D307" s="7"/>
       <c r="E307" s="7" t="s">
         <v>9</v>
       </c>
@@ -7349,17 +7316,17 @@
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="16.5" hidden="1">
       <c r="A308" s="1">
         <v>807</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C308" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C308" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D308" s="11"/>
+      <c r="D308" s="7"/>
       <c r="E308" s="7" t="s">
         <v>9</v>
       </c>
@@ -7369,17 +7336,17 @@
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="16.5" hidden="1">
       <c r="A309" s="1">
         <v>808</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C309" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C309" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D309" s="11" t="s">
+      <c r="D309" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E309" s="7" t="s">
@@ -7391,17 +7358,17 @@
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="16.5" hidden="1">
       <c r="A310" s="1">
         <v>809</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C310" s="10">
-        <v>0</v>
-      </c>
-      <c r="D310" s="11"/>
+        <v>289</v>
+      </c>
+      <c r="C310" s="9">
+        <v>0</v>
+      </c>
+      <c r="D310" s="7"/>
       <c r="E310" s="7" t="s">
         <v>9</v>
       </c>
@@ -7411,17 +7378,17 @@
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="16.5" hidden="1">
       <c r="A311" s="1">
         <v>810</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C311" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C311" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D311" s="11"/>
+      <c r="D311" s="7"/>
       <c r="E311" s="7" t="s">
         <v>9</v>
       </c>
@@ -7431,17 +7398,17 @@
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="16.5" hidden="1">
       <c r="A312" s="1">
         <v>811</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C312" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C312" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D312" s="11"/>
+      <c r="D312" s="7"/>
       <c r="E312" s="7" t="s">
         <v>9</v>
       </c>
@@ -7451,17 +7418,17 @@
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="16.5" hidden="1">
       <c r="A313" s="1">
         <v>813</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C313" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C313" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D313" s="11"/>
+      <c r="D313" s="7"/>
       <c r="E313" s="7" t="s">
         <v>9</v>
       </c>
@@ -7471,31 +7438,31 @@
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="16.5" hidden="1">
       <c r="A314" s="1">
         <v>814</v>
       </c>
       <c r="B314" s="4"/>
-      <c r="C314" s="10" t="s">
+      <c r="C314" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D314" s="11"/>
+      <c r="D314" s="7"/>
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="16.5" hidden="1">
       <c r="A315" s="1">
         <v>815</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C315" s="10">
-        <v>0</v>
-      </c>
-      <c r="D315" s="11"/>
+        <v>293</v>
+      </c>
+      <c r="C315" s="9">
+        <v>0</v>
+      </c>
+      <c r="D315" s="7"/>
       <c r="E315" s="7" t="s">
         <v>9</v>
       </c>
@@ -7505,17 +7472,17 @@
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="16.5" hidden="1">
       <c r="A316" s="1">
         <v>816</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C316" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C316" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D316" s="11"/>
+      <c r="D316" s="7"/>
       <c r="E316" s="7" t="s">
         <v>9</v>
       </c>
@@ -7525,17 +7492,17 @@
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="16.5" hidden="1">
       <c r="A317" s="1">
         <v>817</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C317" s="10">
-        <v>0</v>
-      </c>
-      <c r="D317" s="11"/>
+        <v>295</v>
+      </c>
+      <c r="C317" s="9">
+        <v>0</v>
+      </c>
+      <c r="D317" s="7"/>
       <c r="E317" s="7" t="s">
         <v>9</v>
       </c>
@@ -7545,17 +7512,17 @@
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="16.5" hidden="1">
       <c r="A318" s="1">
         <v>818</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C318" s="10">
-        <v>0</v>
-      </c>
-      <c r="D318" s="11"/>
+        <v>296</v>
+      </c>
+      <c r="C318" s="9">
+        <v>0</v>
+      </c>
+      <c r="D318" s="7"/>
       <c r="E318" s="7" t="s">
         <v>9</v>
       </c>
@@ -7565,17 +7532,17 @@
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="16.5" hidden="1">
       <c r="A319" s="1">
         <v>820</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C319" s="10">
-        <v>0</v>
-      </c>
-      <c r="D319" s="11"/>
+        <v>297</v>
+      </c>
+      <c r="C319" s="9">
+        <v>0</v>
+      </c>
+      <c r="D319" s="7"/>
       <c r="E319" s="7" t="s">
         <v>9</v>
       </c>
@@ -7585,17 +7552,17 @@
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="16.5" hidden="1">
       <c r="A320" s="1">
         <v>821</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C320" s="10">
-        <v>0</v>
-      </c>
-      <c r="D320" s="11"/>
+        <v>298</v>
+      </c>
+      <c r="C320" s="9">
+        <v>0</v>
+      </c>
+      <c r="D320" s="7"/>
       <c r="E320" s="7" t="s">
         <v>9</v>
       </c>
@@ -7605,17 +7572,17 @@
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="16.5" hidden="1">
       <c r="A321" s="1">
         <v>823</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C321" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C321" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D321" s="11"/>
+      <c r="D321" s="7"/>
       <c r="E321" s="7" t="s">
         <v>9</v>
       </c>
@@ -7625,17 +7592,17 @@
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="16.5" hidden="1">
       <c r="A322" s="1">
         <v>824</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C322" s="10">
-        <v>0</v>
-      </c>
-      <c r="D322" s="11"/>
+        <v>300</v>
+      </c>
+      <c r="C322" s="9">
+        <v>0</v>
+      </c>
+      <c r="D322" s="7"/>
       <c r="E322" s="7" t="s">
         <v>9</v>
       </c>
@@ -7645,17 +7612,17 @@
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="16.5" hidden="1">
       <c r="A323" s="1">
         <v>825</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C323" s="10">
-        <v>0</v>
-      </c>
-      <c r="D323" s="11"/>
+        <v>301</v>
+      </c>
+      <c r="C323" s="9">
+        <v>0</v>
+      </c>
+      <c r="D323" s="7"/>
       <c r="E323" s="7" t="s">
         <v>9</v>
       </c>
@@ -7665,17 +7632,17 @@
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="16.5" hidden="1">
       <c r="A324" s="1">
         <v>826</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C324" s="10">
-        <v>0</v>
-      </c>
-      <c r="D324" s="11"/>
+        <v>302</v>
+      </c>
+      <c r="C324" s="9">
+        <v>0</v>
+      </c>
+      <c r="D324" s="7"/>
       <c r="E324" s="7" t="s">
         <v>9</v>
       </c>
@@ -7685,17 +7652,17 @@
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="16.5" hidden="1">
       <c r="A325" s="1">
         <v>833</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C325" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C325" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D325" s="11"/>
+      <c r="D325" s="7"/>
       <c r="E325" s="7" t="s">
         <v>9</v>
       </c>
@@ -7705,17 +7672,17 @@
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="16.5" hidden="1">
       <c r="A326" s="1">
         <v>835</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C326" s="10">
-        <v>0</v>
-      </c>
-      <c r="D326" s="11"/>
+        <v>304</v>
+      </c>
+      <c r="C326" s="9">
+        <v>0</v>
+      </c>
+      <c r="D326" s="7"/>
       <c r="E326" s="7" t="s">
         <v>9</v>
       </c>
